--- a/src/test/resources/testData/SampleDataFile.xlsx
+++ b/src/test/resources/testData/SampleDataFile.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\IdeaProjects\java\ExcelDataReader\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D077E77-CFEE-42F5-B460-78875CF64E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE15E9-CA27-4D68-93E6-0C89EB010FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleDataRecord" sheetId="1" r:id="rId1"/>
+    <sheet name="SampleInstancePrimaryOnly" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Test</t>
   </si>
@@ -80,14 +81,54 @@
   </si>
   <si>
     <t>TEST-04</t>
+  </si>
+  <si>
+    <t>bigDecimal</t>
+  </si>
+  <si>
+    <t>booleanValue</t>
+  </si>
+  <si>
+    <t>doubleValue</t>
+  </si>
+  <si>
+    <t>intValue</t>
+  </si>
+  <si>
+    <t>localDateTime</t>
+  </si>
+  <si>
+    <t>localDate</t>
+  </si>
+  <si>
+    <t>localTime</t>
+  </si>
+  <si>
+    <t>longValue</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Some sample string</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>TWO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -132,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,11 +196,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +237,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -610,4 +673,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85FE70C-6CCB-4237-8339-8F23E3A2DE56}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>123</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12">
+        <v>45108</v>
+      </c>
+      <c r="E3" s="2">
+        <v>123.56</v>
+      </c>
+      <c r="F3" s="2">
+        <v>123</v>
+      </c>
+      <c r="G3" s="11">
+        <v>45108.510937500003</v>
+      </c>
+      <c r="H3" s="12">
+        <v>45108</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.51093749999999993</v>
+      </c>
+      <c r="J3" s="2">
+        <v>123</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12">
+        <v>45108</v>
+      </c>
+      <c r="E4" s="2">
+        <v>123.56</v>
+      </c>
+      <c r="F4" s="2">
+        <v>123</v>
+      </c>
+      <c r="G4" s="11">
+        <v>45108.510937500003</v>
+      </c>
+      <c r="H4" s="12">
+        <v>45108</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>123</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/SampleDataFile.xlsx
+++ b/src/test/resources/testData/SampleDataFile.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\IdeaProjects\java\ExcelDataReader\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE15E9-CA27-4D68-93E6-0C89EB010FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D46F439-A3F0-4426-A4D7-3929899F3A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleDataRecord" sheetId="1" r:id="rId1"/>
     <sheet name="SampleInstancePrimaryOnly" sheetId="2" r:id="rId2"/>
+    <sheet name="SampleInstanceComposite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>Test</t>
   </si>
@@ -120,6 +121,15 @@
   </si>
   <si>
     <t>TWO</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>listOfStrings</t>
+  </si>
+  <si>
+    <t>listOfComposites</t>
   </si>
 </sst>
 </file>
@@ -153,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +182,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -209,11 +225,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,6 +261,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -241,10 +276,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +575,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -558,13 +593,13 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -679,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85FE70C-6CCB-4237-8339-8F23E3A2DE56}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -699,7 +734,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -737,10 +772,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="10"/>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -749,7 +784,7 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>45108</v>
       </c>
       <c r="E3" s="2">
@@ -758,13 +793,13 @@
       <c r="F3" s="2">
         <v>123</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>45108.510937500003</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="9">
         <v>45108</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="10">
         <v>0.51093749999999993</v>
       </c>
       <c r="J3" s="2">
@@ -778,7 +813,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
@@ -787,7 +822,7 @@
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>45108</v>
       </c>
       <c r="E4" s="2">
@@ -796,13 +831,13 @@
       <c r="F4" s="2">
         <v>123</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>45108.510937500003</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <v>45108</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="10">
         <v>0</v>
       </c>
       <c r="J4" s="2">
@@ -823,4 +858,196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9931B40-81B7-4228-B503-3D435B06AB8F}">
+  <dimension ref="A1:AI2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" s="14"/>
+      <c r="M2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="Y1:AI1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>